--- a/write_demo.xlsx
+++ b/write_demo.xlsx
@@ -445,7 +445,7 @@
         <v>2.9999999999</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>44268.55798258322</v>
+        <v>44268.56201064007</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
